--- a/data/Reception_Perception_Veteran_Profiles.xlsx
+++ b/data/Reception_Perception_Veteran_Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{389A4676-7C93-4697-AA30-3844E99EB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF7025D5-634C-471C-8052-2D5B52896C06}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{389A4676-7C93-4697-AA30-3844E99EB7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574DA4FC-6AF8-42F4-AACB-0D9CAB703E99}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="16200" windowHeight="28060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,18 +391,18 @@
 Elite vs. Press Coverage: Metcalf still excels against press (75.0% success rate, 76th percentile), using his trademark physicality, hand usage, and varied releases effectively.
 Strong Slant Runner: He remains one of the best slant runners charted, posting an excellent 83.6% success rate on good volume in 2024.
 Vertical Threat: Still possesses game-breaking speed on Go routes (62.7% success rate), capable of outrunning defenses.
-RAC Potential: While potentially underutilized in Seattle's scheme, he showed good ability to break tackles when given the chance (broke a tackle on 45.8% of "in space" attempts), suggesting upside if Pittsburgh's scheme creates more opportunities.
-Potential Scheme Fit: His strengths (Slants, Digs, Posts) align well with routes often emphasized for the X-receiver in Arthur Smith's offense (similar heavy usage seen with A.J. Brown and Drake London in past RP samples). This could maximize his efficient routes and potentially lead to more RAC opportunities off play-action.
+RAC Potential: While potentially underutilized in Seattles scheme, he showed good ability to break tackles when given the chance (broke a tackle on 45.8% of in space attempts), suggesting upside if Pittsburghs scheme creates more opportunities.
+Potential Scheme Fit: His strengths (Slants, Digs, Posts) align well with routes often emphasized for the X-receiver in Arthur Smiths offense (similar heavy usage seen with A.J. Brown and Drake London in past RP samples). This could maximize his efficient routes and potentially lead to more RAC opportunities off play-action.
 Weaknesses (Based Primarily on 2024 Data):
-Alarming Decline vs. Zone Coverage: His 71.3% success rate vs. zone is a career-low and ranked in the abysmal 10th percentile. This mark is comparable to historically poor seasons from players like Jalen Reagor and Allen Lazard. Attributed to developed "bad habits" like drifting on routes, not working back to the ball, and rounded breaks. This is a major concern for consistent target earning.
+Alarming Decline vs. Zone Coverage: His 71.3% success rate vs. zone is a career-low and ranked in the abysmal 10th percentile. This mark is comparable to historically poor seasons from players like Jalen Reagor and Allen Lazard. Attributed to developed bad habits like drifting on routes, not working back to the ball, and rounded breaks. This is a major concern for consistent target earning.
 Decline vs. Man Coverage: His 69.2% success rate vs. man (54th percentile) is average and also a career-worst, a significant drop from his highly effective early-career numbers.
-Poor Contested Catch Ability: Despite his physique, his contested catch rate plummeted to 40% in 2024, described as "beyond poor" and unreliable. This contradicts the common perception of him as a dominant physical receiver at the catch point.
+Poor Contested Catch Ability: Despite his physique, his contested catch rate plummeted to 40% in 2024, described as beyond poor and unreliable. This contradicts the common perception of him as a dominant physical receiver at the catch point.
 Route Tree Deficiencies: Showed significant struggles on specific routes, particularly Curls (disastrous 47.2% success rate).
-Overall Performance Dip: His 2024 season was viewed as "uninspiring" and "mid," with underlying metrics reflecting this decline even when early-season big plays masked it. He was reportedly "usurped" by Jaxon Smith-Njigba in Seattle.
+Overall Performance Dip: His 2024 season was viewed as uninspiring and mid, with underlying metrics reflecting this decline even when early-season big plays masked it. He was reportedly usurped by Jaxon Smith-Njigba in Seattle.
 Player Comparisons:
 No direct player comps are given for Metcalf himself.
 His poor 2024 zone success rate is compared negatively to seasons by Jalen Reagor, DeVante Parker, and Allen Lazard.
-A.J. Brown and Drake London are referenced as examples of how Arthur Smith's offense could tailor routes (Slants, Digs, Posts) to fit Metcalf's strengths.
+A.J. Brown and Drake London are referenced as examples of how Arthur Smiths offense could tailor routes (Slants, Digs, Posts) to fit Metcalfs strengths.
 Summary through .5 PPR Lens:
 Metcalf presents a significant risk/reward profile for .5 PPR leagues heading into his hypothetical Steelers tenure:
 Positives: His ability to beat press and win on specific routes (Slants, Go) can still lead to valuable receptions and big plays. His RAC potential, if unlocked by the scheme, adds crucial yards after the catch. The potential scheme fit offers hope for tailored usage maximizing his efficient routes, potentially boosting reception volume on those patterns.
@@ -410,15 +410,15 @@
 Overall: The Steelers paid for a known X-receiver, but his 2024 performance metrics suggest significant decline. While the scheme fit provides a path to fantasy relevance by focusing on his strengths (potentially yielding valuable receptions on slants/digs/posts and RAC), his struggles against zone and contested catches make him a volatile asset. His .5 PPR value hinges heavily on whether the scheme can successfully hide his glaring 2024 weaknesses or if the performance dip represents a new, lower baseline. His Pittsburgh tenure could realistically go either way from a fantasy perspective.</t>
   </si>
   <si>
-    <t>Stefon Diggs, historically one of Reception Perception's elite performers (still holding the best-ever success rate vs. man coverage), showed signs of decline in 2023 and continued that trend in 2024 with the Houston Texans before suffering a torn ACL in Week 8. While no longer elite, his pre-injury 2024 performance depicted a savvy veteran capable of aging gracefully into a high-quality starting role, often operating from the slot (45.4% snaps, highest since his second season) as a complement to Nico Collins and Tank Dell. As of late March 2025, the 31-year-old Diggs remains unsigned, likely due to concerns about his recovery.
+    <t>Stefon Diggs, historically one of Reception Perceptions elite performers (still holding the best-ever success rate vs. man coverage), showed signs of decline in 2023 and continued that trend in 2024 with the Houston Texans before suffering a torn ACL in Week 8. While no longer elite, his pre-injury 2024 performance depicted a savvy veteran capable of aging gracefully into a high-quality starting role, often operating from the slot (45.4% snaps, highest since his second season) as a complement to Nico Collins and Tank Dell. As of late March 2025, the 31-year-old Diggs remains unsigned, likely due to concerns about his recovery.
 Strengths (Based on 2024 Pre-Injury Data):
 Reliable Hands: Diggs remained a dependable target, dropping only two passes and catching 75% of his contested looks (albeit on very low volume - 5.9%). This reliability is crucial for securing points in PPR formats.
 Route Running Savvy: Despite declining athleticism, his technique and experience allowed him to remain an effective separator, charting at or above the NFL average on every route type.
-Solid vs. Man/Press: Maintained respectable success rates against Man (71.6%, 67th percentile) and Press (71.4%, 67th percentile), suggesting he still possessed the ability to function effectively on the perimeter and wasn't solely reliant on playing inside.
+Solid vs. Man/Press: Maintained respectable success rates against Man (71.6%, 67th percentile) and Press (71.4%, 67th percentile), suggesting he still possessed the ability to function effectively on the perimeter and wasnt solely reliant on playing inside.
 Effective on Out-Breaking Routes: Excelled on these patterns, showing skill in setting up defenders and working the sidelines.
-Quality Starter Level: Overall metrics placed him firmly in the "quality starting receiver" category pre-injury, capable of being a strong secondary option in a passing game.
+Quality Starter Level: Overall metrics placed him firmly in the quality starting receiver category pre-injury, capable of being a strong secondary option in a passing game.
 Weaknesses (Based on 2024 Pre-Injury Data &amp; Current Situation):
-Declining Athleticism/Deep Threat: A noticeable "lack of juice" hampered his success on deep routes (especially Go routes) and limited separation on some intermediate patterns compared to his peak years.
+Declining Athleticism/Deep Threat: A noticeable lack of juice hampered his success on deep routes (especially Go routes) and limited separation on some intermediate patterns compared to his peak years.
 Poor Run After Catch (RAC): Offered very little after the catch, going down on first contact at a very high rate (65.6%). His value is primarily tied to the reception itself, not post-catch production.
 ACL Injury and Age: Tearing his ACL in late October 2024 at age 31 creates massive uncertainty about his recovery, future effectiveness, and ability to regain even his 2024 form. This is the single largest concern.
 Unsigned Status: His current free agency (as of March 31, 2025) strongly indicates teams have significant medical concerns regarding his recovery.
@@ -429,7 +429,7 @@
 Stefon Diggs presents a highly uncertain profile for .5 PPR leagues due to his injury:
 Pre-Injury Positives: His reliable hands were a major asset, ensuring conversion of targets into catches (points). His route savvy allowed him to consistently earn targets, providing a solid reception floor as a quality starter.
 Pre-Injury Negatives: The extremely limited RAC ability capped his upside beyond the initial 0.5 points per catch. The declining deep speed limited big-play potential.
-Current Reality: The ACL tear at 31 overshadows everything. While his 2024 pre-injury tape showed a useful, hands-catching possession receiver valuable in PPR, there's no guarantee he returns to that level, or even returns effectively at all. The risk associated with his recovery makes him virtually undraftable in fantasy leagues until his health, role, and effectiveness on an NFL field are proven.
+Current Reality: The ACL tear at 31 overshadows everything. While his 2024 pre-injury tape showed a useful, hands-catching possession receiver valuable in PPR, theres no guarantee he returns to that level, or even returns effectively at all. The risk associated with his recovery makes him virtually undraftable in fantasy leagues until his health, role, and effectiveness on an NFL field are proven.
 Overall: Based purely on his 2024 pre-injury profile, Diggs looked like a solid WR2/3 for PPR formats due to reliable volume and hands, despite limited upside. However, the injury introduces extreme downside risk, making his future fantasy value entirely speculative and dependent on a successful recovery and finding a role.</t>
   </si>
 </sst>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
